--- a/output/piaseczno/2023/sheets/year_2023.xlsx
+++ b/output/piaseczno/2023/sheets/year_2023.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>27.93548387096774</v>
+        <v>35.78353260833842</v>
       </c>
       <c r="C2" t="n">
-        <v>29.44516129032258</v>
+        <v>37.33087442017126</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27.83214285714286</v>
+        <v>37.37526289654456</v>
       </c>
       <c r="C3" t="n">
-        <v>35.525</v>
+        <v>41.11399113477212</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.61290322580645</v>
+        <v>34.46364568611437</v>
       </c>
       <c r="C4" t="n">
-        <v>28.78064516129032</v>
+        <v>37.21136720347057</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.69666666666667</v>
+        <v>36.49302049574229</v>
       </c>
       <c r="C5" t="n">
-        <v>35.05</v>
+        <v>38.49872794929089</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.10645161290323</v>
+        <v>39.07083323925227</v>
       </c>
       <c r="C6" t="n">
-        <v>35.02258064516129</v>
+        <v>38.28464779844442</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.22666666666667</v>
+        <v>39.50464423242592</v>
       </c>
       <c r="C7" t="n">
-        <v>37.83</v>
+        <v>40.44941212893509</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.14193548387097</v>
+        <v>37.06895519637919</v>
       </c>
       <c r="C8" t="n">
-        <v>38.42903225806452</v>
+        <v>39.16282222874189</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>37.75806451612903</v>
+        <v>39.19512119850539</v>
       </c>
       <c r="C9" t="n">
-        <v>34.98709677419355</v>
+        <v>39.61678494426577</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.42666666666666</v>
+        <v>38.83531738694915</v>
       </c>
       <c r="C10" t="n">
-        <v>32.93</v>
+        <v>39.34182040279715</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30.95161290322581</v>
+        <v>38.80302753382875</v>
       </c>
       <c r="C11" t="n">
-        <v>35.10967741935484</v>
+        <v>39.18954337776702</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31.27</v>
+        <v>38.58723595451271</v>
       </c>
       <c r="C12" t="n">
-        <v>33.16333333333333</v>
+        <v>38.40108748102543</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.92258064516129</v>
+        <v>40.67438704435503</v>
       </c>
       <c r="C13" t="n">
-        <v>34.08709677419355</v>
+        <v>41.17507846900964</v>
       </c>
     </row>
   </sheetData>
